--- a/experiment_results/SBFL_ONLY/Summary/GPL/multiple_bugs.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/GPL/multiple_bugs.xlsx
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04761904761904764</v>
+        <v>0.04744069912609241</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2268170426065166</v>
+        <v>0.2259675405742825</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3251879699248114</v>
+        <v>0.3239700374531828</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.389724310776942</v>
+        <v>0.3882646691635452</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5106516290726816</v>
+        <v>0.509987515605493</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1090225563909774</v>
+        <v>0.1086142322097378</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.49812734082397</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6654135338345865</v>
+        <v>0.6629213483146067</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7142857142857143</v>
+        <v>0.7116104868913857</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8721804511278195</v>
+        <v>0.8726591760299626</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.075187969924812</v>
+        <v>4.078651685393258</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>77.74812030075188</v>
+        <v>77.49063670411985</v>
       </c>
     </row>
   </sheetData>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05889724310776944</v>
+        <v>0.05867665418227218</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2280701754385968</v>
+        <v>0.2272159800249691</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4373433583959887</v>
+        <v>0.4369538077403233</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4774436090225553</v>
+        <v>0.476903870162296</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5401002506265664</v>
+        <v>0.5405742821473157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1278195488721804</v>
+        <v>0.1273408239700375</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.49812734082397</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9473684210526315</v>
+        <v>0.947565543071161</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,7 +629,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.917293233082707</v>
+        <v>2.917602996254681</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>79.61278195488721</v>
+        <v>79.46441947565543</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05889724310776944</v>
+        <v>0.05867665418227218</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2280701754385968</v>
+        <v>0.2272159800249691</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -688,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4373433583959887</v>
+        <v>0.4369538077403233</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4774436090225553</v>
+        <v>0.476903870162296</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5426065162907266</v>
+        <v>0.5430711610486889</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1278195488721804</v>
+        <v>0.1273408239700375</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -723,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.49812734082397</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9473684210526315</v>
+        <v>0.947565543071161</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.921052631578947</v>
+        <v>2.921348314606742</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -763,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>99.34586466165413</v>
+        <v>99.10112359550561</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05889724310776944</v>
+        <v>0.05867665418227218</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2280701754385968</v>
+        <v>0.2272159800249691</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4373433583959887</v>
+        <v>0.4369538077403233</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -822,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4774436090225553</v>
+        <v>0.476903870162296</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -830,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5426065162907266</v>
+        <v>0.5430711610486889</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1278195488721804</v>
+        <v>0.1273408239700375</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -849,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.49812734082397</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9473684210526315</v>
+        <v>0.947565543071161</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -881,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.921052631578947</v>
+        <v>2.921348314606742</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -889,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>133.0827067669173</v>
+        <v>132.7153558052434</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05889724310776944</v>
+        <v>0.05867665418227218</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2280701754385968</v>
+        <v>0.2272159800249691</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -940,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4373433583959887</v>
+        <v>0.4369538077403233</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -948,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4774436090225553</v>
+        <v>0.476903870162296</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -956,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5426065162907266</v>
+        <v>0.5430711610486889</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1278195488721804</v>
+        <v>0.1273408239700375</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.49812734082397</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -999,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9473684210526315</v>
+        <v>0.947565543071161</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1007,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.921052631578947</v>
+        <v>2.921348314606742</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>133.0827067669173</v>
+        <v>132.7153558052434</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06077694235588974</v>
+        <v>0.06054931335830214</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1058,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2337092731829577</v>
+        <v>0.232833957553059</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4241854636591467</v>
+        <v>0.4238451935081137</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4705513784461141</v>
+        <v>0.4700374531835194</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5419799498746867</v>
+        <v>0.5424469413233457</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.131578947368421</v>
+        <v>0.1310861423220974</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.5112781954887218</v>
+        <v>0.5093632958801498</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.9135338345864662</v>
+        <v>0.9138576779026217</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1117,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9924812030075187</v>
+        <v>0.9925093632958801</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.778195488721805</v>
+        <v>2.779026217228465</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>103.1127819548872</v>
+        <v>102.8277153558052</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05701754385964914</v>
+        <v>0.05680399500624222</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2124060150375943</v>
+        <v>0.2116104868913861</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3853383458646604</v>
+        <v>0.3851435705368277</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3928571428571416</v>
+        <v>0.3926342072409475</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4216791979949862</v>
+        <v>0.4213483146067403</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1240601503759398</v>
+        <v>0.1235955056179775</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4661654135338346</v>
+        <v>0.4644194756554307</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8571428571428571</v>
+        <v>0.8576779026217228</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8609022556390977</v>
+        <v>0.8614232209737828</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9135338345864662</v>
+        <v>0.9138576779026217</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1259,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.293233082706767</v>
+        <v>3.292134831460674</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1267,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>105.3045112781955</v>
+        <v>105.4756554307116</v>
       </c>
     </row>
   </sheetData>
@@ -1310,7 +1310,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.03822055137844613</v>
+        <v>0.03807740324594258</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.04887218045112783</v>
+        <v>0.04868913857677904</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1221804511278195</v>
+        <v>0.1217228464419475</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.197994987468672</v>
+        <v>0.1972534332084897</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1353,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.08270676691729323</v>
+        <v>0.08239700374531835</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1361,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.1052631578947368</v>
+        <v>0.1048689138576779</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1369,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.2706766917293233</v>
+        <v>0.2696629213483146</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1377,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.4360902255639098</v>
+        <v>0.4344569288389513</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1385,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>8.906015037593985</v>
+        <v>8.910112359550562</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>121.218045112782</v>
+        <v>121.3445692883895</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0100250626566416</v>
+        <v>0.009987515605493134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1436,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.06892230576441104</v>
+        <v>0.06866416978776531</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1096491228070174</v>
+        <v>0.109238451935081</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1452,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1115288220551377</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1165413533834585</v>
+        <v>0.1161048689138576</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.02631578947368421</v>
+        <v>0.02621722846441948</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1691729323308271</v>
+        <v>0.1685393258426966</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.2556390977443609</v>
+        <v>0.2546816479400749</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.2593984962406015</v>
+        <v>0.2584269662921349</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.2669172932330827</v>
+        <v>0.2659176029962547</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>82.31203007518798</v>
+        <v>82.10861423220973</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>415.5751879699248</v>
+        <v>415.3445692883895</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05889724310776944</v>
+        <v>0.05867665418227218</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1562,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2280701754385968</v>
+        <v>0.2272159800249691</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4373433583959887</v>
+        <v>0.4369538077403233</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1578,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4774436090225553</v>
+        <v>0.476903870162296</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5401002506265664</v>
+        <v>0.5405742821473157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1278195488721804</v>
+        <v>0.1273408239700375</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1605,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.49812734082397</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9473684210526315</v>
+        <v>0.947565543071161</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.917293233082707</v>
+        <v>2.917602996254681</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1645,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>79.61278195488721</v>
+        <v>79.46441947565543</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05889724310776944</v>
+        <v>0.05867665418227218</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2280701754385968</v>
+        <v>0.2272159800249691</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1696,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4373433583959887</v>
+        <v>0.4369538077403233</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1704,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4774436090225553</v>
+        <v>0.476903870162296</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1712,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5401002506265664</v>
+        <v>0.5405742821473157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1278195488721804</v>
+        <v>0.1273408239700375</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.49812734082397</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1755,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9473684210526315</v>
+        <v>0.947565543071161</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.917293233082707</v>
+        <v>2.917602996254681</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1771,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>79.61278195488721</v>
+        <v>79.46441947565543</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06077694235588974</v>
+        <v>0.06054931335830214</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2318295739348374</v>
+        <v>0.230961298377029</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4354636591478684</v>
+        <v>0.4350811485642933</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4674185463659136</v>
+        <v>0.4669163545568028</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5350877192982458</v>
+        <v>0.5355805243445695</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.131578947368421</v>
+        <v>0.1310861423220974</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.5075187969924813</v>
+        <v>0.5056179775280899</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1865,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1881,7 +1881,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9924812030075187</v>
+        <v>0.9925093632958801</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.755639097744361</v>
+        <v>2.756554307116105</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>81.09774436090225</v>
+        <v>80.90636704119851</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0100250626566416</v>
+        <v>0.009987515605493134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1940,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.06892230576441104</v>
+        <v>0.06866416978776531</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1096491228070174</v>
+        <v>0.109238451935081</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1115288220551377</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1964,7 +1964,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1165413533834585</v>
+        <v>0.1161048689138576</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.02631578947368421</v>
+        <v>0.02621722846441948</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1691729323308271</v>
+        <v>0.1685393258426966</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.2556390977443609</v>
+        <v>0.2546816479400749</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.2593984962406015</v>
+        <v>0.2584269662921349</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2007,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.2669172932330827</v>
+        <v>0.2659176029962547</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>82.31203007518798</v>
+        <v>82.10861423220973</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2023,7 +2023,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>415.5751879699248</v>
+        <v>415.3445692883895</v>
       </c>
     </row>
   </sheetData>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0100250626566416</v>
+        <v>0.009987515605493134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.06892230576441104</v>
+        <v>0.06866416978776531</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2074,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1096491228070174</v>
+        <v>0.109238451935081</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1115288220551377</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2090,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1165413533834585</v>
+        <v>0.1161048689138576</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.02631578947368421</v>
+        <v>0.02621722846441948</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2109,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1691729323308271</v>
+        <v>0.1685393258426966</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.2556390977443609</v>
+        <v>0.2546816479400749</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2125,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.2593984962406015</v>
+        <v>0.2584269662921349</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2133,7 +2133,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.2669172932330827</v>
+        <v>0.2659176029962547</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>82.31203007518798</v>
+        <v>82.10861423220973</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2149,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>415.5751879699248</v>
+        <v>415.3445692883895</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0100250626566416</v>
+        <v>0.009987515605493134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.06892230576441104</v>
+        <v>0.06866416978776531</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2200,7 +2200,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1096491228070174</v>
+        <v>0.109238451935081</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2208,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1115288220551377</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2216,7 +2216,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1165413533834585</v>
+        <v>0.1161048689138576</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.02631578947368421</v>
+        <v>0.02621722846441948</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1691729323308271</v>
+        <v>0.1685393258426966</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2243,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.2556390977443609</v>
+        <v>0.2546816479400749</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.2593984962406015</v>
+        <v>0.2584269662921349</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2259,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.2669172932330827</v>
+        <v>0.2659176029962547</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>82.31203007518798</v>
+        <v>82.10861423220973</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2275,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>415.5751879699248</v>
+        <v>415.3445692883895</v>
       </c>
     </row>
   </sheetData>
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05325814536340855</v>
+        <v>0.0530586766541823</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1986215538847121</v>
+        <v>0.197877652933833</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2326,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3464912280701744</v>
+        <v>0.346441947565542</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3978696741854626</v>
+        <v>0.3976279650436943</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2342,7 +2342,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.449248120300751</v>
+        <v>0.4488139825218468</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1203007518796992</v>
+        <v>0.1198501872659176</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4398496240601504</v>
+        <v>0.4382022471910113</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2369,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7556390977443609</v>
+        <v>0.7565543071161048</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8045112781954887</v>
+        <v>0.8052434456928839</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8571428571428571</v>
+        <v>0.8576779026217228</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2393,7 +2393,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.586466165413534</v>
+        <v>3.584269662921348</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>82.18045112781955</v>
+        <v>81.98501872659176</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05952380952380955</v>
+        <v>0.0593008739076155</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2080200501253136</v>
+        <v>0.2072409488139828</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2452,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.413533834586465</v>
+        <v>0.4132334581772772</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2460,7 +2460,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4592731829573923</v>
+        <v>0.4588014981273397</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5156641604010026</v>
+        <v>0.5149812734082398</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.131578947368421</v>
+        <v>0.1310861423220974</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4586466165413534</v>
+        <v>0.4569288389513109</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8984962406015038</v>
+        <v>0.898876404494382</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2503,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9360902255639098</v>
+        <v>0.9363295880149812</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9962406015037594</v>
+        <v>0.9962546816479401</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2519,7 +2519,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.857142857142857</v>
+        <v>2.857677902621723</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>107.6503759398496</v>
+        <v>107.3483146067416</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0100250626566416</v>
+        <v>0.009987515605493134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.06892230576441104</v>
+        <v>0.06866416978776531</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2578,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1096491228070174</v>
+        <v>0.109238451935081</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1115288220551377</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2594,7 +2594,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1165413533834585</v>
+        <v>0.1161048689138576</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.02631578947368421</v>
+        <v>0.02621722846441948</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2613,7 +2613,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1691729323308271</v>
+        <v>0.1685393258426966</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2621,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.2556390977443609</v>
+        <v>0.2546816479400749</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2629,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.2593984962406015</v>
+        <v>0.2584269662921349</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2637,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.2669172932330827</v>
+        <v>0.2659176029962547</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>82.31203007518798</v>
+        <v>82.10861423220973</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>415.5751879699248</v>
+        <v>415.3445692883895</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06077694235588974</v>
+        <v>0.06054931335830214</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2261904761904765</v>
+        <v>0.2253433208489391</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2704,7 +2704,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.420426065162906</v>
+        <v>0.4200998751560536</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2712,7 +2712,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4423558897243095</v>
+        <v>0.4419475655430699</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2720,7 +2720,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5093984962406013</v>
+        <v>0.5087390761548063</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.131578947368421</v>
+        <v>0.1310861423220974</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4962406015037594</v>
+        <v>0.4943820224719101</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2747,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.9210526315789473</v>
+        <v>0.9213483146067416</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2755,7 +2755,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.924812030075188</v>
+        <v>0.9250936329588015</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9887218045112782</v>
+        <v>0.9887640449438202</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2771,7 +2771,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.81203007518797</v>
+        <v>2.812734082397004</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2779,7 +2779,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>145.578947368421</v>
+        <v>145.2808988764045</v>
       </c>
     </row>
   </sheetData>
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05889724310776944</v>
+        <v>0.05867665418227218</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2280701754385968</v>
+        <v>0.2272159800249691</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2830,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4373433583959887</v>
+        <v>0.4369538077403233</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2838,7 +2838,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4774436090225553</v>
+        <v>0.476903870162296</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2846,7 +2846,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5401002506265664</v>
+        <v>0.5405742821473157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1278195488721804</v>
+        <v>0.1273408239700375</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2865,7 +2865,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.49812734082397</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2873,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2881,7 +2881,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2889,7 +2889,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9473684210526315</v>
+        <v>0.947565543071161</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2897,7 +2897,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.917293233082707</v>
+        <v>2.917602996254681</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>79.61278195488721</v>
+        <v>79.46441947565543</v>
       </c>
     </row>
   </sheetData>
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05889724310776944</v>
+        <v>0.05867665418227218</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2948,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2280701754385968</v>
+        <v>0.2272159800249691</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2956,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4373433583959887</v>
+        <v>0.4369538077403233</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2964,7 +2964,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4774436090225553</v>
+        <v>0.476903870162296</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5401002506265664</v>
+        <v>0.5405742821473157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1278195488721804</v>
+        <v>0.1273408239700375</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2991,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.49812734082397</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3007,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9398496240601504</v>
+        <v>0.9400749063670412</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9473684210526315</v>
+        <v>0.947565543071161</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3023,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.917293233082707</v>
+        <v>2.917602996254681</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3031,7 +3031,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>79.61278195488721</v>
+        <v>79.46441947565543</v>
       </c>
     </row>
   </sheetData>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05952380952380955</v>
+        <v>0.0593008739076155</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3074,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2080200501253136</v>
+        <v>0.2072409488139828</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.413533834586465</v>
+        <v>0.4132334581772772</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3090,7 +3090,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4592731829573923</v>
+        <v>0.4588014981273397</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3098,7 +3098,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5156641604010026</v>
+        <v>0.5149812734082398</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.131578947368421</v>
+        <v>0.1310861423220974</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3117,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4586466165413534</v>
+        <v>0.4569288389513109</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8984962406015038</v>
+        <v>0.898876404494382</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3133,7 +3133,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9360902255639098</v>
+        <v>0.9363295880149812</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3141,7 +3141,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9962406015037594</v>
+        <v>0.9962546816479401</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3149,7 +3149,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.857142857142857</v>
+        <v>2.857677902621723</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3157,7 +3157,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>109.1015037593985</v>
+        <v>108.7940074906367</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.02756892230576441</v>
+        <v>0.02746566791510611</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3200,7 +3200,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1691729323308273</v>
+        <v>0.1685393258426969</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3208,7 +3208,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2318295739348374</v>
+        <v>0.230961298377029</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3216,7 +3216,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2644110275689222</v>
+        <v>0.2634207240948812</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2913533834586459</v>
+        <v>0.2902621722846435</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.06015037593984962</v>
+        <v>0.0599250936329588</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3243,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3721804511278196</v>
+        <v>0.3707865168539326</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3251,7 +3251,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5075187969924813</v>
+        <v>0.5056179775280899</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3259,7 +3259,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.575187969924812</v>
+        <v>0.5730337078651685</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3267,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.631578947368421</v>
+        <v>0.6292134831460674</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3275,7 +3275,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.590225563909774</v>
+        <v>4.595505617977528</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3283,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>105.9473684210526</v>
+        <v>106.1161048689139</v>
       </c>
     </row>
   </sheetData>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05952380952380955</v>
+        <v>0.0593008739076155</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3326,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2061403508771933</v>
+        <v>0.2053682896379529</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4047619047619035</v>
+        <v>0.4044943820224707</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3342,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4429824561403497</v>
+        <v>0.4425717852684133</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3350,7 +3350,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4855889724310768</v>
+        <v>0.4850187265917594</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3361,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.131578947368421</v>
+        <v>0.1310861423220974</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3369,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4548872180451128</v>
+        <v>0.4531835205992509</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3377,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8872180451127819</v>
+        <v>0.8876404494382022</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3385,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.924812030075188</v>
+        <v>0.9250936329588015</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3393,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.981203007518797</v>
+        <v>0.9812734082397003</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.913533834586466</v>
+        <v>2.913857677902622</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3409,7 +3409,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>85.59022556390977</v>
+        <v>85.37078651685393</v>
       </c>
     </row>
   </sheetData>
@@ -3444,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04761904761904764</v>
+        <v>0.04744069912609241</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3452,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2218045112781958</v>
+        <v>0.2209737827715359</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3460,7 +3460,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3201754385964906</v>
+        <v>0.3189762796504363</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3878446115288218</v>
+        <v>0.3863920099875153</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5087719298245611</v>
+        <v>0.508114856429463</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1090225563909774</v>
+        <v>0.1086142322097378</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3495,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4887218045112782</v>
+        <v>0.4868913857677903</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3503,7 +3503,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6541353383458647</v>
+        <v>0.651685393258427</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7105263157894737</v>
+        <v>0.7078651685393258</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3519,7 +3519,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.868421052631579</v>
+        <v>0.8689138576779026</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3527,7 +3527,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.109022556390977</v>
+        <v>4.112359550561798</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>77.74812030075188</v>
+        <v>77.49063670411985</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06077694235588974</v>
+        <v>0.06054931335830214</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3578,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2299498746867171</v>
+        <v>0.2290886392009991</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4279448621553872</v>
+        <v>0.4275905118601735</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3594,7 +3594,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4536340852130313</v>
+        <v>0.4531835205992497</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3602,7 +3602,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5213032581453634</v>
+        <v>0.5205992509363296</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.131578947368421</v>
+        <v>0.1310861423220974</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.5037593984962406</v>
+        <v>0.50187265917603</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3629,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.9323308270676691</v>
+        <v>0.9325842696629213</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3637,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9323308270676691</v>
+        <v>0.9325842696629213</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3645,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9849624060150376</v>
+        <v>0.9850187265917603</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3653,7 +3653,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.785714285714286</v>
+        <v>2.786516853932584</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3661,7 +3661,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>90.62406015037594</v>
+        <v>90.69288389513109</v>
       </c>
     </row>
   </sheetData>
@@ -3704,7 +3704,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.03822055137844613</v>
+        <v>0.03807740324594258</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3712,7 +3712,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.04887218045112783</v>
+        <v>0.04868913857677904</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3720,7 +3720,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1221804511278195</v>
+        <v>0.1217228464419475</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3728,7 +3728,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.197994987468672</v>
+        <v>0.1972534332084897</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3747,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.08270676691729323</v>
+        <v>0.08239700374531835</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3755,7 +3755,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.1052631578947368</v>
+        <v>0.1048689138576779</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3763,7 +3763,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.2706766917293233</v>
+        <v>0.2696629213483146</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3771,7 +3771,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.4360902255639098</v>
+        <v>0.4344569288389513</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3779,7 +3779,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>8.906015037593985</v>
+        <v>8.910112359550562</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3787,7 +3787,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>121.218045112782</v>
+        <v>121.3445692883895</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0100250626566416</v>
+        <v>0.009987515605493134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.06892230576441104</v>
+        <v>0.06866416978776531</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3838,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1096491228070174</v>
+        <v>0.109238451935081</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3846,7 +3846,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1115288220551377</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1165413533834585</v>
+        <v>0.1161048689138576</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3865,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.02631578947368421</v>
+        <v>0.02621722846441948</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3873,7 +3873,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1691729323308271</v>
+        <v>0.1685393258426966</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3881,7 +3881,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.2556390977443609</v>
+        <v>0.2546816479400749</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3889,7 +3889,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.2593984962406015</v>
+        <v>0.2584269662921349</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3897,7 +3897,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.2669172932330827</v>
+        <v>0.2659176029962547</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3905,7 +3905,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>82.31203007518798</v>
+        <v>82.10861423220973</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3913,7 +3913,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>415.5751879699248</v>
+        <v>415.3445692883895</v>
       </c>
     </row>
   </sheetData>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0100250626566416</v>
+        <v>0.009987515605493134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3956,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.06892230576441104</v>
+        <v>0.06866416978776531</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1096491228070174</v>
+        <v>0.109238451935081</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3972,7 +3972,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1115288220551377</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3980,7 +3980,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1165413533834585</v>
+        <v>0.1161048689138576</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3991,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.02631578947368421</v>
+        <v>0.02621722846441948</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3999,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1691729323308271</v>
+        <v>0.1685393258426966</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4007,7 +4007,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.2556390977443609</v>
+        <v>0.2546816479400749</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4015,7 +4015,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.2593984962406015</v>
+        <v>0.2584269662921349</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4023,7 +4023,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.2669172932330827</v>
+        <v>0.2659176029962547</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4031,7 +4031,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>82.31203007518798</v>
+        <v>82.10861423220973</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>415.5751879699248</v>
+        <v>415.3445692883895</v>
       </c>
     </row>
   </sheetData>
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05889724310776944</v>
+        <v>0.05867665418227218</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4082,7 +4082,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2243107769423562</v>
+        <v>0.2234706616729092</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4090,7 +4090,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4129072681704248</v>
+        <v>0.4126092384519338</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4098,7 +4098,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4241854636591466</v>
+        <v>0.4238451935081136</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4106,7 +4106,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4711779448621543</v>
+        <v>0.4706616729088628</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1278195488721804</v>
+        <v>0.1273408239700375</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4125,7 +4125,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4924812030075188</v>
+        <v>0.4906367041198502</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4133,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.9097744360902256</v>
+        <v>0.9101123595505618</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4141,7 +4141,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9135338345864662</v>
+        <v>0.9138576779026217</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9699248120300752</v>
+        <v>0.9700374531835206</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4157,7 +4157,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.969924812030075</v>
+        <v>2.970037453183521</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4165,7 +4165,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>148.6917293233083</v>
+        <v>148.5730337078652</v>
       </c>
     </row>
   </sheetData>
